--- a/templates/dataplant/GEO/GEO_-_Plant_growth.xlsx
+++ b/templates/dataplant/GEO/GEO_-_Plant_growth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00479991-54D9-4282-B903-13E49B9EE8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1EB7E6-77F1-4338-811B-0026EF46C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="1164" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="122">
   <si>
     <t>Source Name</t>
   </si>
@@ -127,37 +127,16 @@
     <t>Characteristics [Organism]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000030)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000030)</t>
-  </si>
-  <si>
     <t>Characteristics [Genotype]</t>
   </si>
   <si>
     <t>Characteristics [Cell line]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000068)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000068)</t>
-  </si>
-  <si>
     <t>Characteristics [Cell type]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000069)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000069)</t>
-  </si>
-  <si>
     <t>Sample Name</t>
-  </si>
-  <si>
-    <t>A. thaliana</t>
   </si>
   <si>
     <t>user-specific</t>
@@ -502,6 +481,33 @@
   </si>
   <si>
     <t>mandatory</t>
+  </si>
+  <si>
+    <t>Characteristic [organism]</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Characteristic [Cell Line]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C16403)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C16403)</t>
+  </si>
+  <si>
+    <t>Characteristic [cell type]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000069)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000069)</t>
   </si>
 </sst>
 </file>
@@ -731,7 +737,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -740,7 +746,34 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{D09CA6D9-E6C7-4433-8F48-8CA6F5BF0770}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -801,27 +834,27 @@
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{109E9A2A-74AF-4992-BC42-D1BBEEE95875}" name="Source Name"/>
     <tableColumn id="75" xr3:uid="{657F4F52-CB0F-43CD-BE98-BA4AA2147D39}" name="Protocol Type"/>
-    <tableColumn id="76" xr3:uid="{F525A82D-473E-4365-99DD-B592C8696B41}" name="Term Source REF (DPBO:1000161)" dataDxfId="9"/>
-    <tableColumn id="77" xr3:uid="{68363097-D6A4-4721-8FCD-9CB6E1F506AC}" name="Term Accession Number (DPBO:1000161)" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{7FEFD774-DABD-4831-847D-0D23CC21F459}" name="Characteristics [Organism]"/>
-    <tableColumn id="10" xr3:uid="{F62475D2-B612-4B26-8B49-B57F1180A023}" name="Term Source REF (NFDI4PSO:0000030)"/>
-    <tableColumn id="11" xr3:uid="{AF4C5CAD-49E4-466F-8E13-927A731B6B4E}" name="Term Accession Number (NFDI4PSO:0000030)"/>
+    <tableColumn id="76" xr3:uid="{F525A82D-473E-4365-99DD-B592C8696B41}" name="Term Source REF (DPBO:1000161)" dataDxfId="18"/>
+    <tableColumn id="77" xr3:uid="{68363097-D6A4-4721-8FCD-9CB6E1F506AC}" name="Term Accession Number (DPBO:1000161)" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{BC5AF05C-5D1B-4FD2-8313-E920CBAEDE73}" name="Characteristic [organism]" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1C6A1D9B-EAF5-47ED-A7CF-ED8A581BDDE0}" name="Term Source REF (OBI:0100026)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{0FCCB28C-42C6-404B-AC2C-290F84960D0C}" name="Term Accession Number (OBI:0100026)" dataDxfId="6"/>
     <tableColumn id="84" xr3:uid="{BAC7B2D4-020C-4ED4-A786-19785D90AE9C}" name="Characteristic [Tissue]"/>
-    <tableColumn id="85" xr3:uid="{BA3EA792-E735-4E94-8897-65C09C3EE862}" name="Term Source REF (NCIT:C12801)" dataDxfId="7"/>
-    <tableColumn id="86" xr3:uid="{EAC9DB19-96EB-4C4F-B14D-647B5C852C8F}" name="Term Accession Number (NCIT:C12801)" dataDxfId="6"/>
-    <tableColumn id="27" xr3:uid="{C45533C6-CC59-4351-B721-1FE27A159BB4}" name="Characteristics [Cell line]"/>
-    <tableColumn id="28" xr3:uid="{4B8BE20A-1B3D-499F-A10E-87B1E6B03807}" name="Term Source REF (NFDI4PSO:0000068)"/>
-    <tableColumn id="29" xr3:uid="{39108D07-EE30-4DF7-A8CA-CDF923C50F71}" name="Term Accession Number (NFDI4PSO:0000068)"/>
-    <tableColumn id="30" xr3:uid="{92AF2BB8-C976-43AB-9059-752D882BE1EE}" name="Characteristics [Cell type]"/>
-    <tableColumn id="31" xr3:uid="{3215EDBE-BB46-4574-BA6C-3A0ACF6CE14B}" name="Term Source REF (NFDI4PSO:0000069)"/>
-    <tableColumn id="32" xr3:uid="{B612B9DA-E2C0-4FD3-B423-D13E56B6D982}" name="Term Accession Number (NFDI4PSO:0000069)"/>
+    <tableColumn id="85" xr3:uid="{BA3EA792-E735-4E94-8897-65C09C3EE862}" name="Term Source REF (NCIT:C12801)" dataDxfId="16"/>
+    <tableColumn id="86" xr3:uid="{EAC9DB19-96EB-4C4F-B14D-647B5C852C8F}" name="Term Accession Number (NCIT:C12801)" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{1C5E1D96-C89A-4EE3-8D5F-ECA8D7395336}" name="Characteristic [Cell Line]" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{C1DE0DB4-B5AB-49F1-963D-7B252AA3317C}" name="Term Source REF (NCIT:C16403)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B7B3FC81-A024-4D6C-9CCA-966623E0F681}" name="Term Accession Number (NCIT:C16403)" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E7D99810-FF98-4212-BC6F-330F31545C42}" name="Characteristic [cell type]" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{A41DAAB0-C946-41F0-8791-F650C95C46D0}" name="Term Source REF (DPBO:0000069)" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{0E661AB6-33AD-4EF9-9E5E-A937441EB723}" name="Term Accession Number (DPBO:0000069)" dataDxfId="0"/>
     <tableColumn id="96" xr3:uid="{606B5945-AA12-4702-BC21-7216E0E7B5E0}" name="Characteristic [genotype]"/>
-    <tableColumn id="97" xr3:uid="{5391B9BA-F95E-4542-932B-05F5138266B1}" name="Term Source REF (EFO:0000513)" dataDxfId="5"/>
-    <tableColumn id="98" xr3:uid="{730DDA71-CAC5-4E1D-96C7-CC1885426714}" name="Term Accession Number (EFO:0000513)" dataDxfId="4"/>
-    <tableColumn id="123" xr3:uid="{26230A2E-6CB2-4F6E-B4EC-351EC08FF7CF}" name="Characteristic [treatment]" dataDxfId="3"/>
-    <tableColumn id="124" xr3:uid="{99522591-B537-4743-A30A-661C2A99E5E5}" name="Term Source REF (EFO:0000727)" dataDxfId="2"/>
-    <tableColumn id="125" xr3:uid="{BAC985FD-E753-4048-85E5-1F1B916FA607}" name="Term Accession Number (EFO:0000727)" dataDxfId="1"/>
-    <tableColumn id="126" xr3:uid="{F79F4454-ACD3-4765-B1E1-0124D912C73E}" name="Sample Name" dataDxfId="0"/>
+    <tableColumn id="97" xr3:uid="{5391B9BA-F95E-4542-932B-05F5138266B1}" name="Term Source REF (EFO:0000513)" dataDxfId="14"/>
+    <tableColumn id="98" xr3:uid="{730DDA71-CAC5-4E1D-96C7-CC1885426714}" name="Term Accession Number (EFO:0000513)" dataDxfId="13"/>
+    <tableColumn id="123" xr3:uid="{26230A2E-6CB2-4F6E-B4EC-351EC08FF7CF}" name="Characteristic [treatment]" dataDxfId="12"/>
+    <tableColumn id="124" xr3:uid="{99522591-B537-4743-A30A-661C2A99E5E5}" name="Term Source REF (EFO:0000727)" dataDxfId="11"/>
+    <tableColumn id="125" xr3:uid="{BAC985FD-E753-4048-85E5-1F1B916FA607}" name="Term Accession Number (EFO:0000727)" dataDxfId="10"/>
+    <tableColumn id="126" xr3:uid="{F79F4454-ACD3-4765-B1E1-0124D912C73E}" name="Sample Name" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1159,7 +1192,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="682" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="879" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
@@ -1202,35 +1235,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:ER15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="40" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="38.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="38.44140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="38.44140625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.44140625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="37.88671875" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="39.6640625" bestFit="1" customWidth="1"/>
@@ -1364,100 +1397,122 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="V1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1469,13 +1524,13 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1490,13 +1545,13 @@
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1511,13 +1566,13 @@
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1532,13 +1587,13 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1553,151 +1608,151 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9588F95B-E0B9-4C24-B456-D720E0C41839}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1726,120 +1781,120 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -1847,87 +1902,87 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B27" s="9"/>
     </row>
@@ -1966,40 +2021,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2007,107 +2062,107 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2115,227 +2170,227 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="J6" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
